--- a/data/trans_bre/PLURIPATOLOGIA-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 4,55</t>
+          <t>-2,89; 4,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 13,97</t>
+          <t>2,3; 14,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 13,26</t>
+          <t>-2,39; 13,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 20,15</t>
+          <t>6,48; 19,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; —</t>
+          <t>16,93; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 315,13</t>
+          <t>-31,44; 309,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,03; 360,98</t>
+          <t>46,25; 327,97</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,42</t>
+          <t>-0,71; 3,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,72</t>
+          <t>2,23; 8,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,21</t>
+          <t>4,32; 10,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 9,19</t>
+          <t>2,19; 9,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 189,94</t>
+          <t>-24,22; 190,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,98; 268,84</t>
+          <t>32,8; 261,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,21; 386,83</t>
+          <t>84,88; 385,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,84; 100,88</t>
+          <t>15,19; 99,06</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,37</t>
+          <t>0,08; 4,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,75</t>
+          <t>3,51; 7,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,86</t>
+          <t>3,74; 8,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,14</t>
+          <t>5,08; 10,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 154,67</t>
+          <t>1,28; 146,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,85; 272,59</t>
+          <t>71,73; 271,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,79; 323,23</t>
+          <t>91,5; 338,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,57; 147,17</t>
+          <t>54,06; 147,37</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 9,4</t>
+          <t>4,1; 9,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,85</t>
+          <t>2,84; 7,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,93</t>
+          <t>2,77; 7,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 43,63</t>
+          <t>6,3; 43,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,53; 384,43</t>
+          <t>77,49; 380,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,69; 273,53</t>
+          <t>56,08; 276,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,34; 320,89</t>
+          <t>60,88; 317,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,37; 698,31</t>
+          <t>74,08; 729,84</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,21</t>
+          <t>1,42; 5,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,67</t>
+          <t>4,9; 9,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,7</t>
+          <t>5,18; 9,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,28</t>
+          <t>6,58; 11,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,8; 175,08</t>
+          <t>28,6; 176,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>96,52; 331,3</t>
+          <t>98,08; 334,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>105,58; 354,95</t>
+          <t>106,2; 350,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,35; 163,15</t>
+          <t>66,09; 156,11</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,42</t>
+          <t>2,23; 4,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,36</t>
+          <t>4,91; 7,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,56</t>
+          <t>5,0; 7,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 18,62</t>
+          <t>7,5; 19,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,27; 145,6</t>
+          <t>56,49; 144,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>110,21; 221,93</t>
+          <t>114,83; 220,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>128,79; 250,31</t>
+          <t>122,94; 241,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,17; 223,57</t>
+          <t>81,86; 219,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PLURIPATOLOGIA-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,73</t>
+          <t>-3,02; 4,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 14,44</t>
+          <t>2,33; 14,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 13,46</t>
+          <t>-2,53; 13,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,93; —</t>
+          <t>-3,37; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 309,86</t>
+          <t>-33,79; 310,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,43</t>
+          <t>-0,57; 3,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 8,61</t>
+          <t>2,25; 8,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,0</t>
+          <t>4,08; 10,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 190,05</t>
+          <t>-20,76; 224,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,8; 261,63</t>
+          <t>36,95; 248,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,88; 385,02</t>
+          <t>79,97; 407,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,17</t>
+          <t>0,39; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,95</t>
+          <t>3,27; 7,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,0</t>
+          <t>3,7; 8,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 146,59</t>
+          <t>6,39; 151,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,73; 271,78</t>
+          <t>69,62; 264,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,5; 338,34</t>
+          <t>86,84; 318,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,46</t>
+          <t>4,06; 9,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,88</t>
+          <t>3,07; 8,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,54</t>
+          <t>2,89; 7,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,49; 380,95</t>
+          <t>87,88; 375,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,08; 276,91</t>
+          <t>57,94; 298,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,88; 317,34</t>
+          <t>64,45; 313,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,45</t>
+          <t>1,41; 5,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,72</t>
+          <t>4,88; 9,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,81</t>
+          <t>4,72; 9,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,6; 176,76</t>
+          <t>30,7; 178,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>98,08; 334,68</t>
+          <t>95,14; 333,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>106,2; 350,12</t>
+          <t>95,02; 334,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,35</t>
+          <t>2,24; 4,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,35</t>
+          <t>4,94; 7,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,49</t>
+          <t>5,06; 7,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,49; 144,33</t>
+          <t>56,99; 148,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>114,83; 220,54</t>
+          <t>112,15; 217,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>122,94; 241,13</t>
+          <t>122,16; 244,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/PLURIPATOLOGIA-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,89</t>
+          <t>-3,34; 4,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 14,6</t>
+          <t>2,13; 13,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 13,08</t>
+          <t>-1,94; 13,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 19,61</t>
+          <t>5,85; 20,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; —</t>
+          <t>-10,76; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 310,3</t>
+          <t>-23,0; 315,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,25; 327,97</t>
+          <t>39,03; 360,98</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,63</t>
+          <t>-0,89; 3,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,47</t>
+          <t>2,58; 8,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,19</t>
+          <t>4,24; 10,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,15</t>
+          <t>1,95; 9,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 224,53</t>
+          <t>-27,68; 189,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,95; 248,68</t>
+          <t>47,98; 268,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,97; 407,34</t>
+          <t>85,21; 386,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 99,06</t>
+          <t>14,84; 100,88</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,31</t>
+          <t>0,47; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,68</t>
+          <t>3,32; 7,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,34</t>
+          <t>3,53; 7,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,04</t>
+          <t>4,92; 10,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 151,5</t>
+          <t>9,31; 154,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,62; 264,12</t>
+          <t>71,85; 272,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,84; 318,62</t>
+          <t>84,79; 323,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,06; 147,37</t>
+          <t>50,57; 147,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,39</t>
+          <t>3,97; 9,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,22</t>
+          <t>2,7; 7,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,85</t>
+          <t>2,85; 7,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 43,39</t>
+          <t>6,53; 43,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,88; 375,3</t>
+          <t>78,53; 384,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,94; 298,57</t>
+          <t>49,69; 273,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,45; 313,71</t>
+          <t>62,34; 320,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,08; 729,84</t>
+          <t>80,37; 698,31</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,28</t>
+          <t>1,28; 5,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,96</t>
+          <t>5,0; 9,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,66</t>
+          <t>4,88; 9,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,98</t>
+          <t>6,6; 12,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,7; 178,93</t>
+          <t>26,8; 175,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>95,14; 333,13</t>
+          <t>96,52; 331,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>95,02; 334,17</t>
+          <t>105,58; 354,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,09; 156,11</t>
+          <t>66,35; 163,15</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,46</t>
+          <t>2,25; 4,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 7,32</t>
+          <t>4,83; 7,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,55</t>
+          <t>5,05; 7,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,91</t>
+          <t>7,44; 18,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,99; 148,52</t>
+          <t>56,27; 145,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>112,15; 217,94</t>
+          <t>110,21; 221,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>122,16; 244,04</t>
+          <t>128,79; 250,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>81,86; 219,6</t>
+          <t>83,17; 223,57</t>
         </is>
       </c>
     </row>
